--- a/output/fit_clients/fit_round_449.xlsx
+++ b/output/fit_clients/fit_round_449.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1965324440.983353</v>
+        <v>2342530699.644483</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0888282334432287</v>
+        <v>0.08313552567512927</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02978731403269256</v>
+        <v>0.04029015169402052</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>982662211.460981</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2362382817.420104</v>
+        <v>2650407161.313819</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1525752492286573</v>
+        <v>0.1627017228076125</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0328628876063603</v>
+        <v>0.03943049958464753</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1181191504.916604</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3335456173.363307</v>
+        <v>3444833114.571575</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1146122216030405</v>
+        <v>0.1029724034721905</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02780598393010563</v>
+        <v>0.02446790445784913</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>163</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1667728053.797108</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2671324277.738365</v>
+        <v>3506194651.170115</v>
       </c>
       <c r="F5" t="n">
-        <v>0.109585456593811</v>
+        <v>0.08193077425564969</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05010086901102766</v>
+        <v>0.04394490229522841</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>166</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1335662230.45862</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2123831008.208373</v>
+        <v>2320245795.683759</v>
       </c>
       <c r="F6" t="n">
-        <v>0.142840450101612</v>
+        <v>0.1160085746809478</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04434605872962569</v>
+        <v>0.05479531152366976</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>84</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1061915520.32072</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2824387630.079215</v>
+        <v>2044141128.001927</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0697353610127139</v>
+        <v>0.0889439801315543</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04475702957009869</v>
+        <v>0.04602907696972543</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>141</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1412193796.841835</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2959978728.471961</v>
+        <v>3401646408.830901</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1680923757205283</v>
+        <v>0.1981158940233105</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02096224440749409</v>
+        <v>0.02991726065298886</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>143</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1479989417.677834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2108354614.311823</v>
+        <v>2196814003.269795</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1627571205704208</v>
+        <v>0.1423116769295592</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03432158865593881</v>
+        <v>0.02256248982745853</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1054177318.753066</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5088361146.934701</v>
+        <v>4708643942.429175</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1582112336910969</v>
+        <v>0.1968132567724048</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03996020961426574</v>
+        <v>0.03802632500101498</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>189</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2544180679.643665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4111223752.021441</v>
+        <v>3987850860.213562</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1387501759934308</v>
+        <v>0.1424074075382426</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04513965435463962</v>
+        <v>0.03574542034829568</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>186</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2055611896.463835</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2423062247.756709</v>
+        <v>2015078664.068139</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1419775396246611</v>
+        <v>0.1392259598609758</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05035923641427079</v>
+        <v>0.04786802350453551</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>152</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1211531089.079584</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3278382683.580974</v>
+        <v>3982368302.110041</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06172565970620705</v>
+        <v>0.07291103194249478</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02988754849784336</v>
+        <v>0.02947795738031267</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>152</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1639191433.38815</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2368416702.290721</v>
+        <v>3013688742.732353</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1553882319812238</v>
+        <v>0.1547089914890456</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04214808660005814</v>
+        <v>0.04408565763798782</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>145</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1184208431.34174</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1773107450.707106</v>
+        <v>1435517562.345411</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07223600670051541</v>
+        <v>0.1056588534275391</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03571987922725807</v>
+        <v>0.03622239144581081</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>886553872.7974159</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2616356271.813724</v>
+        <v>1954443677.111774</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1159185779985176</v>
+        <v>0.09221448332794355</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03212247032462971</v>
+        <v>0.04539973709150887</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>93</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1308178156.361511</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5269862706.349662</v>
+        <v>4047461422.094992</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1584329206880777</v>
+        <v>0.1331861326805952</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04868027199974424</v>
+        <v>0.03731218090017969</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>135</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2634931324.983848</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3626771292.356423</v>
+        <v>2967193177.437747</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1827039327721491</v>
+        <v>0.1215441842500413</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03455367229644341</v>
+        <v>0.02730948943273532</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>148</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1813385631.129789</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>960178132.1571159</v>
+        <v>985069777.9897095</v>
       </c>
       <c r="F19" t="n">
-        <v>0.166524782972239</v>
+        <v>0.1271603375495108</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02316021496956677</v>
+        <v>0.02085412180436715</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>480089085.6797914</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1701940865.580231</v>
+        <v>2729785275.065351</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1025433833501043</v>
+        <v>0.1177873366392282</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02368186079454866</v>
+        <v>0.03058321593467522</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>62</v>
-      </c>
-      <c r="J20" t="n">
-        <v>850970490.9023513</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2286561235.359687</v>
+        <v>1857437193.514828</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07023482628634137</v>
+        <v>0.07727932338318845</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04032287061336999</v>
+        <v>0.04316527370766332</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>35</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1143280626.251136</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3132298723.412185</v>
+        <v>2989111917.046752</v>
       </c>
       <c r="F22" t="n">
-        <v>0.133621031799641</v>
+        <v>0.08783586199457823</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05080220680996604</v>
+        <v>0.0547147984298933</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>124</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1566149415.333959</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1310231181.767912</v>
+        <v>1077277312.03961</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1723892026813783</v>
+        <v>0.1616696424218097</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04432292999178685</v>
+        <v>0.03751051404996384</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>655115608.8101369</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2826667256.116565</v>
+        <v>2709744842.461875</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1433406236150395</v>
+        <v>0.09992879661409586</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02741371503445058</v>
+        <v>0.03549602464761953</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>132</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1413333674.960464</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1023767291.558753</v>
+        <v>1288105791.456064</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09357793633840289</v>
+        <v>0.08913195045963079</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02630983395342468</v>
+        <v>0.01969119812015098</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>511883704.3059487</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1030344006.618436</v>
+        <v>1183127617.84862</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1104505114283994</v>
+        <v>0.09003555428782516</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03860527669326743</v>
+        <v>0.03618994493824144</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>515171982.8460991</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3648794155.151199</v>
+        <v>4492093507.150373</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09523277445749197</v>
+        <v>0.1411703697235087</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01641001913442021</v>
+        <v>0.02190257332294984</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1824397105.19123</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3695936718.622251</v>
+        <v>2426116382.617084</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1065163908628897</v>
+        <v>0.1054219166117086</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05008905949787325</v>
+        <v>0.0341869916020112</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>146</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1847968430.950684</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5440040072.092491</v>
+        <v>5947119969.155358</v>
       </c>
       <c r="F29" t="n">
-        <v>0.115692903769661</v>
+        <v>0.1283963872425313</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04001473944816037</v>
+        <v>0.03803165620818822</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>199</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2720019953.189143</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1840365989.554663</v>
+        <v>2119701905.047316</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1141190455715918</v>
+        <v>0.1061741702479888</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03653417293771599</v>
+        <v>0.03318983172342573</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>920183014.0487119</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1064928801.861059</v>
+        <v>1439048741.0702</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07594502571387474</v>
+        <v>0.07958697140124982</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04057720499160275</v>
+        <v>0.04158782807370866</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>532464384.2087803</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1513036806.839719</v>
+        <v>1481391420.522276</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08598725438994281</v>
+        <v>0.1170670859899171</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02640795060628143</v>
+        <v>0.02403784412106241</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>756518474.4959825</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2563170299.945755</v>
+        <v>3038220134.96412</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2077301172447938</v>
+        <v>0.1517075046498263</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04481384048600125</v>
+        <v>0.04028044414278633</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>138</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1281585182.843735</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1026866827.460526</v>
+        <v>1286932983.341943</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1214690564417549</v>
+        <v>0.07852437050266484</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02054555470026081</v>
+        <v>0.01810427812272856</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>513433447.1657254</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1126639874.771556</v>
+        <v>1073089239.278328</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1106324709845931</v>
+        <v>0.1001879785954806</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04055449911229973</v>
+        <v>0.0404425372855782</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>563319928.2094197</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3025263545.424349</v>
+        <v>2859353127.354025</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1792231799472734</v>
+        <v>0.1580397762862903</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02537485901781243</v>
+        <v>0.02786031434423925</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>115</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1512631752.632599</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2014250581.193319</v>
+        <v>2439890866.385541</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1042268081636114</v>
+        <v>0.08963011267502281</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03443325295188771</v>
+        <v>0.02653260857759521</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>120</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1007125319.851557</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1755903120.048918</v>
+        <v>1327170435.124934</v>
       </c>
       <c r="F38" t="n">
-        <v>0.105156066757823</v>
+        <v>0.08893994116837298</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03254630847213294</v>
+        <v>0.03458690802335161</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>877951573.1485857</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1426295928.359364</v>
+        <v>1580632532.049625</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1578676664820694</v>
+        <v>0.1844477803043044</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02603810894050557</v>
+        <v>0.02187118145780275</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>713148045.8057269</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1354876474.084987</v>
+        <v>1590464633.706771</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1427099298414334</v>
+        <v>0.1497108702393381</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04552528935273209</v>
+        <v>0.05624670794190205</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>677438239.5703605</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2001939370.439101</v>
+        <v>2645143163.876327</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1427875442789554</v>
+        <v>0.1636346501346469</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04543951243716775</v>
+        <v>0.03284186163794892</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>110</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1000969759.240084</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3576251717.421998</v>
+        <v>3533285612.353557</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1272630227317781</v>
+        <v>0.08183036378066379</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03491498761652412</v>
+        <v>0.041456986666047</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>147</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1788125858.82906</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2384854390.710392</v>
+        <v>2760049748.460203</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1357857143162746</v>
+        <v>0.1540077788264391</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02139786852740192</v>
+        <v>0.02404659532089282</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>156</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1192427255.604139</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1968256369.900671</v>
+        <v>1980501987.222742</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07565468489467615</v>
+        <v>0.06447130532881311</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02530425277585171</v>
+        <v>0.03310378485922114</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>984128284.9664073</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1728002738.43595</v>
+        <v>2100893369.408741</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1911497117846032</v>
+        <v>0.1204993675560825</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04012958365925978</v>
+        <v>0.04024780088258578</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>864001332.6742126</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4551474265.97298</v>
+        <v>4039163528.841336</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1475145585755799</v>
+        <v>0.1694363421283253</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05279699740842882</v>
+        <v>0.05542004804644305</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>160</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2275737134.15118</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4628587719.472463</v>
+        <v>3564906107.250153</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1241314131563264</v>
+        <v>0.1751551729480775</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04583464220437111</v>
+        <v>0.04197100658751401</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>124</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2314293894.485984</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4427899747.585755</v>
+        <v>2976675731.849047</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08297032616544626</v>
+        <v>0.0709484237771858</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02483132274502039</v>
+        <v>0.02820696373232177</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>146</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2213949883.297056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1482709560.828592</v>
+        <v>1206955371.214324</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1378170058147835</v>
+        <v>0.1479805467165659</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02925161378348351</v>
+        <v>0.04216755409262653</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>741354815.132913</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2629774020.74293</v>
+        <v>4181844586.154486</v>
       </c>
       <c r="F50" t="n">
-        <v>0.131469654418621</v>
+        <v>0.1534527747542131</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04123183826577402</v>
+        <v>0.04095990928408921</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>154</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1314887096.550004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1253789184.892593</v>
+        <v>1377956893.483662</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1411690314790826</v>
+        <v>0.1464762291979364</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04055394401408238</v>
+        <v>0.03410623422289494</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>626894635.3041277</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4108830563.101056</v>
+        <v>3897385964.438945</v>
       </c>
       <c r="F52" t="n">
-        <v>0.113800287740493</v>
+        <v>0.09388018262349657</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04483923749892835</v>
+        <v>0.06129798923353363</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>185</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2054415331.643378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3050100160.958087</v>
+        <v>3251435339.14984</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1902311447777047</v>
+        <v>0.1886901201919339</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02411337588421661</v>
+        <v>0.02700714279668421</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>128</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1525050109.477382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3202028097.40827</v>
+        <v>3577439422.027405</v>
       </c>
       <c r="F54" t="n">
-        <v>0.111300108542058</v>
+        <v>0.1639214552126771</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05054254091635078</v>
+        <v>0.03309226465822697</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>147</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1601014050.13023</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4468270180.431793</v>
+        <v>3615485974.609145</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1821944104155504</v>
+        <v>0.1773693401195275</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02799348000665301</v>
+        <v>0.02720601924714107</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>117</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2234135085.796612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1292462285.969225</v>
+        <v>1247759201.267158</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1224274147265583</v>
+        <v>0.14841711112977</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04228302942679272</v>
+        <v>0.045817818974173</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>646231216.0098884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4434118996.091567</v>
+        <v>4498880420.875352</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1270108675641237</v>
+        <v>0.1525417690254499</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02597410932501221</v>
+        <v>0.01701150687627995</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>143</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2217059622.880849</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1679539416.72863</v>
+        <v>1199219635.399144</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1641863521052319</v>
+        <v>0.1962968739092612</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02853146400393265</v>
+        <v>0.02895810162993218</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>839769723.1297997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3467288668.051451</v>
+        <v>3878254395.376284</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08009056233601089</v>
+        <v>0.1198600950908222</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04263668764837523</v>
+        <v>0.04478439032435752</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>127</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1733644335.69751</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3566049428.134807</v>
+        <v>2846154456.326579</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1685982303636182</v>
+        <v>0.1815927831339634</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02093636075116617</v>
+        <v>0.02613886512365774</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>141</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1783024843.810781</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2456253764.032588</v>
+        <v>2200411123.278226</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1611228132156182</v>
+        <v>0.108575747800585</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02717169898613815</v>
+        <v>0.02292531847456582</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>155</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1228126913.780464</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1485596885.346035</v>
+        <v>1641962716.778258</v>
       </c>
       <c r="F62" t="n">
-        <v>0.190643575754905</v>
+        <v>0.1261449820417738</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04718207195645313</v>
+        <v>0.04661351452947895</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>742798423.6024897</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4065412608.024606</v>
+        <v>3965132754.634334</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1047447394881942</v>
+        <v>0.06831702392216503</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04119241940673884</v>
+        <v>0.04061659336360126</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>130</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2032706363.523208</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3743487967.559479</v>
+        <v>4720503984.49569</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1697721897370406</v>
+        <v>0.1332087937273789</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03570073347606511</v>
+        <v>0.02798478627382292</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>140</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1871744001.615648</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4266252390.156859</v>
+        <v>5939308301.625183</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1608853922742511</v>
+        <v>0.154483687469963</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02248665634789626</v>
+        <v>0.02071316476459953</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>161</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2133126197.79834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3826014937.448619</v>
+        <v>4688387901.103758</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1156797795954145</v>
+        <v>0.1522878052244453</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04647810619020397</v>
+        <v>0.03862464460040314</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>133</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1913007432.988814</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3039013826.966225</v>
+        <v>2832977296.922584</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06665894196241315</v>
+        <v>0.07533080404366617</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04889292501664966</v>
+        <v>0.03682234684937061</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>143</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1519506928.465585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4805168571.568695</v>
+        <v>5861275993.336886</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1222763544696225</v>
+        <v>0.1316286201066922</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03868693617196595</v>
+        <v>0.0492375036425864</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>144</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2402584330.397695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2062349416.396444</v>
+        <v>1765076396.769706</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1131043651025417</v>
+        <v>0.1333213323641558</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03931768773164776</v>
+        <v>0.05192959085978654</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1031174721.235564</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2524550314.549327</v>
+        <v>2548414533.759429</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08150035371984962</v>
+        <v>0.06549900296319794</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03387821741891648</v>
+        <v>0.04815708136684303</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>129</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1262275103.300807</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3835834989.84819</v>
+        <v>4550286456.436113</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1396741429046794</v>
+        <v>0.1128001608769429</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02720778941911594</v>
+        <v>0.02646016221836096</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>164</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1917917513.71353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2075847207.665384</v>
+        <v>1990955054.624433</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06726462794388442</v>
+        <v>0.07309215249487033</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04904124229117143</v>
+        <v>0.04071849780159523</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1037923537.960867</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2621765811.973001</v>
+        <v>2855739123.471501</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08289398560571017</v>
+        <v>0.08134526908249556</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03450965778513722</v>
+        <v>0.0399174130242762</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>170</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1310882936.624017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3457855674.42761</v>
+        <v>3006633877.189651</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1328595616250425</v>
+        <v>0.1849473519417107</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03093821563326724</v>
+        <v>0.0335719376917949</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>154</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1728927863.060152</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2122371518.80494</v>
+        <v>2378823462.238243</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1623691665448019</v>
+        <v>0.151801473596129</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02663851975277778</v>
+        <v>0.02700681740193936</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1061185712.105019</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4825314120.034243</v>
+        <v>3969808040.572334</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08746600549975453</v>
+        <v>0.0892206232549605</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03326497757310894</v>
+        <v>0.02431628880216984</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2412657079.360602</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1723171871.574977</v>
+        <v>2086253823.367612</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1353866119834877</v>
+        <v>0.1597102756537936</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01964920305428535</v>
+        <v>0.02545829801822994</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>861585956.4438176</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4762324485.718006</v>
+        <v>4572562440.185554</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1226253717368149</v>
+        <v>0.08654776471562835</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0426635877032556</v>
+        <v>0.04336403213214574</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>156</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2381162154.029387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1892719466.658683</v>
+        <v>1880414618.681344</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1176808220158428</v>
+        <v>0.1195179659468988</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04063954025547731</v>
+        <v>0.04007708014438621</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>946359836.2194864</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4945694734.619543</v>
+        <v>4490687611.049747</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07307308324055152</v>
+        <v>0.08861647439806511</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03474037927167325</v>
+        <v>0.02506277377041794</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2472847413.836181</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4064505660.539828</v>
+        <v>4015626545.137233</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1027469730174248</v>
+        <v>0.09774844506770261</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02088009925103448</v>
+        <v>0.02027622387030075</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2032252795.880212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5251713754.85484</v>
+        <v>5065922365.961033</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1545150146636167</v>
+        <v>0.2013645478011412</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02800017762086803</v>
+        <v>0.02511730263011868</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>157</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2625856847.362253</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2257801022.230201</v>
+        <v>2146406734.873112</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1295976330382674</v>
+        <v>0.1035800663310308</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03178649159064809</v>
+        <v>0.03780011034048595</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1128900528.533609</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1888856774.693871</v>
+        <v>1695418336.767606</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1050132728876824</v>
+        <v>0.1111713756416478</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03677641019853174</v>
+        <v>0.04701119077253217</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>944428408.6545737</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3006009959.872164</v>
+        <v>2307517032.116015</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1127820565490749</v>
+        <v>0.1262825058345892</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05599434571428483</v>
+        <v>0.05110986925456067</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>169</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1503005040.750456</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2754901578.129644</v>
+        <v>2096852330.428509</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1457101974830813</v>
+        <v>0.137663746115302</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02745572826685382</v>
+        <v>0.02431251220383404</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>55</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1377450921.684197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1039317076.918507</v>
+        <v>954247594.2727513</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1401933744385563</v>
+        <v>0.1536870809225119</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03041438769030557</v>
+        <v>0.02931600723316274</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>519658552.8734935</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3233832135.075232</v>
+        <v>3544427572.605639</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1310708291390431</v>
+        <v>0.1594938974995827</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02897489483205364</v>
+        <v>0.03694820436458524</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>178</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1616916121.125783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2778128432.987577</v>
+        <v>3169721965.006106</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1292171113506751</v>
+        <v>0.1431849016629334</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02987542929326798</v>
+        <v>0.03482223497811486</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>152</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1389064270.87551</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1990613976.867966</v>
+        <v>1515290594.412047</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08786953611192451</v>
+        <v>0.08651276218449286</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05402680347642649</v>
+        <v>0.05220453867610307</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>995307056.9500052</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2049772759.432966</v>
+        <v>1362949287.592485</v>
       </c>
       <c r="F91" t="n">
-        <v>0.122818032091169</v>
+        <v>0.1326034744028342</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03778126893168874</v>
+        <v>0.04235650922637269</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1024886345.370313</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1859082414.243572</v>
+        <v>2246294580.044136</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1063141579427699</v>
+        <v>0.06988185688135612</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03399094514950144</v>
+        <v>0.03911944979931499</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>123</v>
-      </c>
-      <c r="J92" t="n">
-        <v>929541142.7211918</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5032790558.365311</v>
+        <v>4809218628.435943</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1238509343258968</v>
+        <v>0.09507544776475238</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03764527395931275</v>
+        <v>0.05284831054835127</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>133</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2516395213.015948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2131870882.658548</v>
+        <v>2076003124.011701</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1129905437707025</v>
+        <v>0.1553066672394447</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02797360294438912</v>
+        <v>0.03742264699854181</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1065935456.921163</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2355229549.3193</v>
+        <v>2052006491.520668</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08400733183910418</v>
+        <v>0.08631377809931927</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04374712899601461</v>
+        <v>0.03189341402628789</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>108</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1177614821.282029</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2201583656.720523</v>
+        <v>2392387966.487417</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1381491079111083</v>
+        <v>0.1215683471326018</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03037953201919018</v>
+        <v>0.0376142548253242</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1100791793.828109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5158971087.952906</v>
+        <v>4442349485.757985</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1746752978409042</v>
+        <v>0.1507606508847248</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01869991118663601</v>
+        <v>0.02743023456655702</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>144</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2579485693.573718</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3765564069.462729</v>
+        <v>3380627742.165399</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08288212100696021</v>
+        <v>0.09430172171671224</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02600817609626036</v>
+        <v>0.02658242381201706</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>121</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1882782071.365797</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2564864596.135732</v>
+        <v>2687831089.224639</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1358885972685976</v>
+        <v>0.124213367890881</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02230202760560635</v>
+        <v>0.0348980833298721</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>141</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1282432252.563493</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3794611405.626225</v>
+        <v>4180567699.033492</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1671167999607602</v>
+        <v>0.1278122638219725</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02191572066159537</v>
+        <v>0.02810456171223451</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>138</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1897305757.115214</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3116710543.96761</v>
+        <v>2205969270.837263</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2217760819246314</v>
+        <v>0.1456900746435326</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03543099056892049</v>
+        <v>0.03704194446131251</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>184</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1558355376.469424</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_449.xlsx
+++ b/output/fit_clients/fit_round_449.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2342530699.644483</v>
+        <v>1567859410.415887</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08313552567512927</v>
+        <v>0.07540253754748609</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04029015169402052</v>
+        <v>0.03563898391886577</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2650407161.313819</v>
+        <v>1603374942.718873</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1627017228076125</v>
+        <v>0.1544536411128356</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03943049958464753</v>
+        <v>0.04541010748405252</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3444833114.571575</v>
+        <v>3598494980.631582</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1029724034721905</v>
+        <v>0.1329027157305106</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02446790445784913</v>
+        <v>0.03244354413675379</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3506194651.170115</v>
+        <v>3141113792.200744</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08193077425564969</v>
+        <v>0.1098341095793179</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04394490229522841</v>
+        <v>0.03202704410732246</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2320245795.683759</v>
+        <v>2552997279.562444</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1160085746809478</v>
+        <v>0.1101957259713684</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05479531152366976</v>
+        <v>0.04158202053194075</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2044141128.001927</v>
+        <v>2807872425.712592</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0889439801315543</v>
+        <v>0.08037918698381387</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04602907696972543</v>
+        <v>0.0492801140880575</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3401646408.830901</v>
+        <v>3587566917.916743</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1981158940233105</v>
+        <v>0.169366142578373</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02991726065298886</v>
+        <v>0.02883137619535815</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2196814003.269795</v>
+        <v>2214319922.750614</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1423116769295592</v>
+        <v>0.1683363120938279</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02256248982745853</v>
+        <v>0.03657787091570876</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4708643942.429175</v>
+        <v>5147873134.721309</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1968132567724048</v>
+        <v>0.1311596049633711</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03802632500101498</v>
+        <v>0.04645451972520621</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3987850860.213562</v>
+        <v>3733193165.511995</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1424074075382426</v>
+        <v>0.1379568722196472</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03574542034829568</v>
+        <v>0.03522529405425377</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2015078664.068139</v>
+        <v>3246622886.017038</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1392259598609758</v>
+        <v>0.1754620657781307</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04786802350453551</v>
+        <v>0.04955129124218003</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3982368302.110041</v>
+        <v>4345996619.154654</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07291103194249478</v>
+        <v>0.07205235497636509</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02947795738031267</v>
+        <v>0.02299650344356488</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3013688742.732353</v>
+        <v>2744578455.497898</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1547089914890456</v>
+        <v>0.1439258070482501</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04408565763798782</v>
+        <v>0.04292001018973857</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1435517562.345411</v>
+        <v>1416700390.321037</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1056588534275391</v>
+        <v>0.1045716621813595</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03622239144581081</v>
+        <v>0.04356992896125522</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1954443677.111774</v>
+        <v>1953886083.56834</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09221448332794355</v>
+        <v>0.08681574050841168</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04539973709150887</v>
+        <v>0.0345285325196588</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4047461422.094992</v>
+        <v>5177446726.346842</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1331861326805952</v>
+        <v>0.1248087518866241</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03731218090017969</v>
+        <v>0.05023260607095772</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2967193177.437747</v>
+        <v>3608732788.746644</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1215441842500413</v>
+        <v>0.1344556844787745</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02730948943273532</v>
+        <v>0.02122438415119974</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>985069777.9897095</v>
+        <v>872598906.5460749</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1271603375495108</v>
+        <v>0.1290746197412516</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02085412180436715</v>
+        <v>0.01872975389132144</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,16 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2729785275.065351</v>
+        <v>1943079487.399451</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1177873366392282</v>
+        <v>0.16076275571643</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03058321593467522</v>
+        <v>0.02628253592074958</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1857437193.514828</v>
+        <v>2416190342.341086</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07727932338318845</v>
+        <v>0.08742136933159461</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04316527370766332</v>
+        <v>0.0313926705807825</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2989111917.046752</v>
+        <v>3353111344.328679</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08783586199457823</v>
+        <v>0.1129712096700257</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0547147984298933</v>
+        <v>0.0462597636169024</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1077277312.03961</v>
+        <v>981567157.1696075</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1616696424218097</v>
+        <v>0.185326216214465</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03751051404996384</v>
+        <v>0.0347226543694809</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2709744842.461875</v>
+        <v>2541658288.080091</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09992879661409586</v>
+        <v>0.0938032186617558</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03549602464761953</v>
+        <v>0.03739465365304299</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1288105791.456064</v>
+        <v>896576645.9251136</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08913195045963079</v>
+        <v>0.1180788788594871</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01969119812015098</v>
+        <v>0.02536130695963901</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1183127617.84862</v>
+        <v>973387830.5036476</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09003555428782516</v>
+        <v>0.1138406491692938</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03618994493824144</v>
+        <v>0.02382815288674681</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4492093507.150373</v>
+        <v>3906790204.970448</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1411703697235087</v>
+        <v>0.1257205887696789</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02190257332294984</v>
+        <v>0.01654827802170993</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2426116382.617084</v>
+        <v>2817082973.450552</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1054219166117086</v>
+        <v>0.1222447376306925</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0341869916020112</v>
+        <v>0.03196116444315681</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5947119969.155358</v>
+        <v>4325034778.035341</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1283963872425313</v>
+        <v>0.1011142366624834</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03803165620818822</v>
+        <v>0.02908705648497454</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2119701905.047316</v>
+        <v>1480225077.736559</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1061741702479888</v>
+        <v>0.1271483061905405</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03318983172342573</v>
+        <v>0.03100509750325008</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1439048741.0702</v>
+        <v>968562286.6816089</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07958697140124982</v>
+        <v>0.07178818086991925</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04158782807370866</v>
+        <v>0.03973153223425322</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1481391420.522276</v>
+        <v>1594013495.131847</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1170670859899171</v>
+        <v>0.0977454080868672</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02403784412106241</v>
+        <v>0.03422410073449602</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3038220134.96412</v>
+        <v>2367147806.647989</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1517075046498263</v>
+        <v>0.2050463572414564</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04028044414278633</v>
+        <v>0.05795981648070425</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1286932983.341943</v>
+        <v>1075928055.899786</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07852437050266484</v>
+        <v>0.09236330478300367</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01810427812272856</v>
+        <v>0.02370914534432554</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1073089239.278328</v>
+        <v>1135281578.366961</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1001879785954806</v>
+        <v>0.1173466009265019</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0404425372855782</v>
+        <v>0.04488333573186903</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2859353127.354025</v>
+        <v>2744158207.113275</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1580397762862903</v>
+        <v>0.1794963012554725</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02786031434423925</v>
+        <v>0.02664275689409748</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2439890866.385541</v>
+        <v>2618380974.103477</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08963011267502281</v>
+        <v>0.09055043066318941</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02653260857759521</v>
+        <v>0.04059841850063133</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1327170435.124934</v>
+        <v>1785288233.506447</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08893994116837298</v>
+        <v>0.114599476682664</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03458690802335161</v>
+        <v>0.03667371324261309</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1580632532.049625</v>
+        <v>1727555565.573701</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1844477803043044</v>
+        <v>0.1374168920685639</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02187118145780275</v>
+        <v>0.03195229073203688</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1590464633.706771</v>
+        <v>1671796190.115005</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1497108702393381</v>
+        <v>0.1070490090782015</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05624670794190205</v>
+        <v>0.05539986566334745</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2645143163.876327</v>
+        <v>2631400592.887064</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1636346501346469</v>
+        <v>0.1091428687746979</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03284186163794892</v>
+        <v>0.04388284852241449</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3533285612.353557</v>
+        <v>4215408460.845129</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08183036378066379</v>
+        <v>0.1195985904938328</v>
       </c>
       <c r="G42" t="n">
-        <v>0.041456986666047</v>
+        <v>0.0290851360063057</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2760049748.460203</v>
+        <v>2297173230.260279</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1540077788264391</v>
+        <v>0.1926924791398318</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02404659532089282</v>
+        <v>0.01976158779063006</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1980501987.222742</v>
+        <v>2073197208.65054</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06447130532881311</v>
+        <v>0.09178418549535367</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03310378485922114</v>
+        <v>0.02675241240086485</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2100893369.408741</v>
+        <v>1563129445.60632</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1204993675560825</v>
+        <v>0.1592229914549458</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04024780088258578</v>
+        <v>0.03747741908111944</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4039163528.841336</v>
+        <v>3862952360.385978</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1694363421283253</v>
+        <v>0.1261932981889067</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05542004804644305</v>
+        <v>0.05427429449277443</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3564906107.250153</v>
+        <v>4873089709.720387</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1751551729480775</v>
+        <v>0.1265818703680516</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04197100658751401</v>
+        <v>0.03939348917705732</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2976675731.849047</v>
+        <v>2927520102.048727</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0709484237771858</v>
+        <v>0.1051320192205745</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02820696373232177</v>
+        <v>0.03228427400734651</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1206955371.214324</v>
+        <v>1910897102.772768</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1479805467165659</v>
+        <v>0.1893244025628561</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04216755409262653</v>
+        <v>0.04080563746209709</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4181844586.154486</v>
+        <v>3488375749.923473</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1534527747542131</v>
+        <v>0.1604313093323392</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04095990928408921</v>
+        <v>0.04948638889685289</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1377956893.483662</v>
+        <v>972622598.2664031</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1464762291979364</v>
+        <v>0.1772209428812098</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03410623422289494</v>
+        <v>0.04153446251588068</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3897385964.438945</v>
+        <v>4165812793.26487</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09388018262349657</v>
+        <v>0.08447257440010286</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06129798923353363</v>
+        <v>0.04454359480782894</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3251435339.14984</v>
+        <v>2422807652.649231</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1886901201919339</v>
+        <v>0.1713466074371341</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02700714279668421</v>
+        <v>0.03084061492424996</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3577439422.027405</v>
+        <v>4333055106.719347</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1639214552126771</v>
+        <v>0.1365409055007904</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03309226465822697</v>
+        <v>0.04868615133806373</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3615485974.609145</v>
+        <v>3117021329.161836</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1773693401195275</v>
+        <v>0.2122498897252529</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02720601924714107</v>
+        <v>0.02064576006098583</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1247759201.267158</v>
+        <v>1793796805.031068</v>
       </c>
       <c r="F56" t="n">
-        <v>0.14841711112977</v>
+        <v>0.1563691627597573</v>
       </c>
       <c r="G56" t="n">
-        <v>0.045817818974173</v>
+        <v>0.04989023999997598</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4498880420.875352</v>
+        <v>4195159452.554412</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1525417690254499</v>
+        <v>0.1189004648785557</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01701150687627995</v>
+        <v>0.0213458391055616</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1199219635.399144</v>
+        <v>1159713635.612146</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1962968739092612</v>
+        <v>0.1758347339625971</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02895810162993218</v>
+        <v>0.02821802849789624</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3878254395.376284</v>
+        <v>4577854112.661274</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1198600950908222</v>
+        <v>0.1096125745048953</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04478439032435752</v>
+        <v>0.04611043161986858</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2846154456.326579</v>
+        <v>2927019601.158887</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1815927831339634</v>
+        <v>0.1375254306838195</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02613886512365774</v>
+        <v>0.02504865028156383</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2200411123.278226</v>
+        <v>2636145448.002728</v>
       </c>
       <c r="F61" t="n">
-        <v>0.108575747800585</v>
+        <v>0.1668388622309941</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02292531847456582</v>
+        <v>0.0225498410080367</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1641962716.778258</v>
+        <v>1879324478.393764</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1261449820417738</v>
+        <v>0.1335736208758729</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04661351452947895</v>
+        <v>0.03289855312675095</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3965132754.634334</v>
+        <v>5492272765.701595</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06831702392216503</v>
+        <v>0.09186994880240121</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04061659336360126</v>
+        <v>0.04066812689329868</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4720503984.49569</v>
+        <v>3804887447.466488</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1332087937273789</v>
+        <v>0.1857285002736167</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02798478627382292</v>
+        <v>0.03487462760673225</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5939308301.625183</v>
+        <v>4530165523.22797</v>
       </c>
       <c r="F65" t="n">
-        <v>0.154483687469963</v>
+        <v>0.1201502086184509</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02071316476459953</v>
+        <v>0.02491675725957198</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4688387901.103758</v>
+        <v>5661810741.917847</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1522878052244453</v>
+        <v>0.109044590765002</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03862464460040314</v>
+        <v>0.04168754370925137</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2832977296.922584</v>
+        <v>2995651116.747397</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07533080404366617</v>
+        <v>0.0637192185689513</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03682234684937061</v>
+        <v>0.04347424224408897</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5861275993.336886</v>
+        <v>4659906176.751398</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1316286201066922</v>
+        <v>0.1085186449132915</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0492375036425864</v>
+        <v>0.04242799776993468</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1765076396.769706</v>
+        <v>2171445748.132736</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1333213323641558</v>
+        <v>0.1486429867606257</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05192959085978654</v>
+        <v>0.04694945623841019</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,16 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2548414533.759429</v>
+        <v>3170628377.498696</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06549900296319794</v>
+        <v>0.08411874129106352</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04815708136684303</v>
+        <v>0.03916361906596212</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4550286456.436113</v>
+        <v>5023446823.134278</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1128001608769429</v>
+        <v>0.1426327730763816</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02646016221836096</v>
+        <v>0.03389270625137392</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1990955054.624433</v>
+        <v>2035290951.960447</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07309215249487033</v>
+        <v>0.09200994323240533</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04071849780159523</v>
+        <v>0.03444655355038449</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2855739123.471501</v>
+        <v>2446513311.683718</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08134526908249556</v>
+        <v>0.1061752575822271</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0399174130242762</v>
+        <v>0.04737869506543507</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3006633877.189651</v>
+        <v>3872816158.318444</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1849473519417107</v>
+        <v>0.1328709038031866</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0335719376917949</v>
+        <v>0.02911327104561191</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2378823462.238243</v>
+        <v>1961325474.311635</v>
       </c>
       <c r="F75" t="n">
-        <v>0.151801473596129</v>
+        <v>0.1204965157691233</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02700681740193936</v>
+        <v>0.03575770126600935</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3969808040.572334</v>
+        <v>4967612842.527556</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0892206232549605</v>
+        <v>0.124200630691563</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02431628880216984</v>
+        <v>0.02111803791001132</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2086253823.367612</v>
+        <v>1544599046.601305</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1597102756537936</v>
+        <v>0.1492645194828881</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02545829801822994</v>
+        <v>0.02733722734590672</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4572562440.185554</v>
+        <v>3792683331.019099</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08654776471562835</v>
+        <v>0.08733438979025418</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04336403213214574</v>
+        <v>0.03646954606169763</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1880414618.681344</v>
+        <v>1341829471.434995</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1195179659468988</v>
+        <v>0.1516211034367071</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04007708014438621</v>
+        <v>0.0296721395943378</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4490687611.049747</v>
+        <v>5424643325.185498</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08861647439806511</v>
+        <v>0.1064861325688986</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02506277377041794</v>
+        <v>0.0278897994548029</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4015626545.137233</v>
+        <v>4112331285.654262</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09774844506770261</v>
+        <v>0.1043181599175752</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02027622387030075</v>
+        <v>0.03148993900681877</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5065922365.961033</v>
+        <v>5655841489.6386</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2013645478011412</v>
+        <v>0.196648952487063</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02511730263011868</v>
+        <v>0.02508311456831916</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2146406734.873112</v>
+        <v>2410323921.25852</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1035800663310308</v>
+        <v>0.1544810303039362</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03780011034048595</v>
+        <v>0.04342688196356184</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1695418336.767606</v>
+        <v>1605632445.491035</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1111713756416478</v>
+        <v>0.1142947590627141</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04701119077253217</v>
+        <v>0.03684677604943342</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2307517032.116015</v>
+        <v>3102360015.426782</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1262825058345892</v>
+        <v>0.1201076954766478</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05110986925456067</v>
+        <v>0.04161748446670284</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2096852330.428509</v>
+        <v>1834711305.628582</v>
       </c>
       <c r="F86" t="n">
-        <v>0.137663746115302</v>
+        <v>0.1261616277966305</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02431251220383404</v>
+        <v>0.02641096087341222</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>954247594.2727513</v>
+        <v>1366030527.16456</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1536870809225119</v>
+        <v>0.1759763725786953</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02931600723316274</v>
+        <v>0.04413558242508413</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3544427572.605639</v>
+        <v>3707812037.177833</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1594938974995827</v>
+        <v>0.1339085542536946</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03694820436458524</v>
+        <v>0.03594146372724414</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3169721965.006106</v>
+        <v>2895538153.569479</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1431849016629334</v>
+        <v>0.1528449805249779</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03482223497811486</v>
+        <v>0.03605541917750126</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1515290594.412047</v>
+        <v>1958438411.732958</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08651276218449286</v>
+        <v>0.1196098243267433</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05220453867610307</v>
+        <v>0.05364165022649378</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1362949287.592485</v>
+        <v>1912925529.411078</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1326034744028342</v>
+        <v>0.1184727684194314</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04235650922637269</v>
+        <v>0.03935231405952603</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3006,16 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2246294580.044136</v>
+        <v>2320476760.515241</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06988185688135612</v>
+        <v>0.09197010560220485</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03911944979931499</v>
+        <v>0.03644052644878542</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4809218628.435943</v>
+        <v>3044058715.096015</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09507544776475238</v>
+        <v>0.09463788060093041</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05284831054835127</v>
+        <v>0.03894626152978196</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2076003124.011701</v>
+        <v>1565628881.562032</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1553066672394447</v>
+        <v>0.1166964005348513</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03742264699854181</v>
+        <v>0.04059486508984163</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2052006491.520668</v>
+        <v>2143243300.20925</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08631377809931927</v>
+        <v>0.09041877493760794</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03189341402628789</v>
+        <v>0.03880579835248483</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,16 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2392387966.487417</v>
+        <v>1541262836.20611</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1215683471326018</v>
+        <v>0.1234178993840765</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0376142548253242</v>
+        <v>0.02896119434846232</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4442349485.757985</v>
+        <v>4444939828.921862</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1507606508847248</v>
+        <v>0.1073521329016161</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02743023456655702</v>
+        <v>0.02100365248305623</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3380627742.165399</v>
+        <v>3647986030.564102</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09430172171671224</v>
+        <v>0.1035273611659567</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02658242381201706</v>
+        <v>0.0237277348387821</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2687831089.224639</v>
+        <v>3205080806.040465</v>
       </c>
       <c r="F99" t="n">
-        <v>0.124213367890881</v>
+        <v>0.09915150160411522</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0348980833298721</v>
+        <v>0.03522999260691347</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4180567699.033492</v>
+        <v>3749466546.687571</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1278122638219725</v>
+        <v>0.1392831159240137</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02810456171223451</v>
+        <v>0.02176969875067136</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2205969270.837263</v>
+        <v>2441508371.367201</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1456900746435326</v>
+        <v>0.1982073080256657</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03704194446131251</v>
+        <v>0.04647536406003096</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_449.xlsx
+++ b/output/fit_clients/fit_round_449.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1567859410.415887</v>
+        <v>2047643483.054709</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07540253754748609</v>
+        <v>0.09471380749759091</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03563898391886577</v>
+        <v>0.02851290497746714</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1603374942.718873</v>
+        <v>2261744618.821652</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1544536411128356</v>
+        <v>0.1159030896312229</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04541010748405252</v>
+        <v>0.04888960928262093</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3598494980.631582</v>
+        <v>3708179297.541614</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1329027157305106</v>
+        <v>0.1404106404244703</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03244354413675379</v>
+        <v>0.0268054618301151</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>227</v>
+      </c>
+      <c r="J4" t="n">
+        <v>447</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,16 +606,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3141113792.200744</v>
+        <v>2688120980.398689</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1098341095793179</v>
+        <v>0.08223364388703704</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03202704410732246</v>
+        <v>0.04717635985145129</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>189</v>
+      </c>
+      <c r="J5" t="n">
+        <v>448</v>
+      </c>
+      <c r="K5" t="n">
+        <v>22.2374288954984</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2552997279.562444</v>
+        <v>2821104728.472155</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1101957259713684</v>
+        <v>0.1356586297423913</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04158202053194075</v>
+        <v>0.04628664218647529</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2807872425.712592</v>
+        <v>1973961778.977046</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08037918698381387</v>
+        <v>0.07309506403552461</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0492801140880575</v>
+        <v>0.04937648729547681</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3587566917.916743</v>
+        <v>3867706277.743058</v>
       </c>
       <c r="F8" t="n">
-        <v>0.169366142578373</v>
+        <v>0.1862629450905461</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02883137619535815</v>
+        <v>0.02983645041222098</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>123</v>
+      </c>
+      <c r="J8" t="n">
+        <v>449</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2214319922.750614</v>
+        <v>1642952897.479074</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1683363120938279</v>
+        <v>0.1775477195824765</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03657787091570876</v>
+        <v>0.03113134094006396</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5147873134.721309</v>
+        <v>4599263598.892087</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1311596049633711</v>
+        <v>0.1560777633766789</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04645451972520621</v>
+        <v>0.04391956075128337</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>349</v>
+      </c>
+      <c r="J10" t="n">
+        <v>449</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3733193165.511995</v>
+        <v>3754417887.411562</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1379568722196472</v>
+        <v>0.1248174765750426</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03522529405425377</v>
+        <v>0.03140947439748006</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>186</v>
+      </c>
+      <c r="J11" t="n">
+        <v>449</v>
+      </c>
+      <c r="K11" t="n">
+        <v>43.25074241254388</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3246622886.017038</v>
+        <v>3064654952.558394</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1754620657781307</v>
+        <v>0.1764250459230342</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04955129124218003</v>
+        <v>0.04880767240699504</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4345996619.154654</v>
+        <v>3230957824.695533</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07205235497636509</v>
+        <v>0.0944996259025383</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02299650344356488</v>
+        <v>0.03132328497482682</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>233</v>
+      </c>
+      <c r="J13" t="n">
+        <v>448</v>
+      </c>
+      <c r="K13" t="n">
+        <v>28.67683525239459</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2744578455.497898</v>
+        <v>2497110909.561744</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1439258070482501</v>
+        <v>0.121449601175961</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04292001018973857</v>
+        <v>0.0417225038332321</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>98</v>
+      </c>
+      <c r="J14" t="n">
+        <v>444</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1416700390.321037</v>
+        <v>1708206995.855303</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1045716621813595</v>
+        <v>0.09855561411437994</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04356992896125522</v>
+        <v>0.03757192312817263</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1953886083.56834</v>
+        <v>2042146494.431454</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08681574050841168</v>
+        <v>0.1152937011759866</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0345285325196588</v>
+        <v>0.04113493310706422</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1032,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5177446726.346842</v>
+        <v>5109253333.668344</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1248087518866241</v>
+        <v>0.157784571912759</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05023260607095772</v>
+        <v>0.03375145903304128</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>218</v>
+      </c>
+      <c r="J17" t="n">
+        <v>449</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1061,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3608732788.746644</v>
+        <v>3731800609.719555</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1344556844787745</v>
+        <v>0.1268343690305786</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02122438415119974</v>
+        <v>0.03165179646925699</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>119</v>
+      </c>
+      <c r="J18" t="n">
+        <v>449</v>
+      </c>
+      <c r="K18" t="n">
+        <v>48.9195196361601</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>872598906.5460749</v>
+        <v>1009692585.576911</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1290746197412516</v>
+        <v>0.1211467728216208</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01872975389132144</v>
+        <v>0.02166332520409653</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1943079487.399451</v>
+        <v>2264175691.058872</v>
       </c>
       <c r="F20" t="n">
-        <v>0.16076275571643</v>
+        <v>0.1353751757719489</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02628253592074958</v>
+        <v>0.02282332275227033</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2416190342.341086</v>
+        <v>2671238452.656178</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08742136933159461</v>
+        <v>0.0834002696179007</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0313926705807825</v>
+        <v>0.04313541271046694</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1209,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3353111344.328679</v>
+        <v>4045856029.71815</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1129712096700257</v>
+        <v>0.1381247433730636</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0462597636169024</v>
+        <v>0.04495021123255197</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>130</v>
+      </c>
+      <c r="J22" t="n">
+        <v>449</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>981567157.1696075</v>
+        <v>1115857943.259999</v>
       </c>
       <c r="F23" t="n">
-        <v>0.185326216214465</v>
+        <v>0.1254619414567636</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0347226543694809</v>
+        <v>0.05407121312557917</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2541658288.080091</v>
+        <v>2793923585.227042</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0938032186617558</v>
+        <v>0.09760228294776468</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03739465365304299</v>
+        <v>0.02274445157335438</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>142</v>
+      </c>
+      <c r="J24" t="n">
+        <v>444</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>896576645.9251136</v>
+        <v>1417495537.061291</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1180788788594871</v>
+        <v>0.07905941068481548</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02536130695963901</v>
+        <v>0.02818875077162133</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>973387830.5036476</v>
+        <v>1114090579.139148</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1138406491692938</v>
+        <v>0.07822593342839666</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02382815288674681</v>
+        <v>0.03777377796010167</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3906790204.970448</v>
+        <v>3342736106.446735</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1257205887696789</v>
+        <v>0.147766878329744</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01654827802170993</v>
+        <v>0.02619126734938493</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>195</v>
+      </c>
+      <c r="J27" t="n">
+        <v>448</v>
+      </c>
+      <c r="K27" t="n">
+        <v>31.37240615017028</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2817082973.450552</v>
+        <v>3476268122.863144</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1222447376306925</v>
+        <v>0.1103298197693609</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03196116444315681</v>
+        <v>0.03809399677590897</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>108</v>
+      </c>
+      <c r="J28" t="n">
+        <v>437</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1450,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4325034778.035341</v>
+        <v>4326097943.721539</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1011142366624834</v>
+        <v>0.1304860401940885</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02908705648497454</v>
+        <v>0.03343108892012087</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>365</v>
+      </c>
+      <c r="J29" t="n">
+        <v>449</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1480225077.736559</v>
+        <v>1849350761.286331</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1271483061905405</v>
+        <v>0.09076415752359843</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03100509750325008</v>
+        <v>0.0349294332879854</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>968562286.6816089</v>
+        <v>993226870.4689304</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07178818086991925</v>
+        <v>0.09390754334457885</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03973153223425322</v>
+        <v>0.04968032664797154</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1594013495.131847</v>
+        <v>1197232991.703441</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0977454080868672</v>
+        <v>0.08525909306640171</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03422410073449602</v>
+        <v>0.02805694173210621</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1596,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2367147806.647989</v>
+        <v>2500863685.793776</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2050463572414564</v>
+        <v>0.1688581154931368</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05795981648070425</v>
+        <v>0.04346577487002454</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1075928055.899786</v>
+        <v>1106465593.042964</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09236330478300367</v>
+        <v>0.08307556239141095</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02370914534432554</v>
+        <v>0.02517537217265627</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1135281578.366961</v>
+        <v>1322622550.053539</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1173466009265019</v>
+        <v>0.1183403565597265</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04488333573186903</v>
+        <v>0.02913618502947009</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2744158207.113275</v>
+        <v>2659714552.813272</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1794963012554725</v>
+        <v>0.1381859652260761</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02664275689409748</v>
+        <v>0.02802169089416663</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2618380974.103477</v>
+        <v>2265501696.967112</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09055043066318941</v>
+        <v>0.08344126096129001</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04059841850063133</v>
+        <v>0.03518720360597514</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1785288233.506447</v>
+        <v>1822108878.08891</v>
       </c>
       <c r="F38" t="n">
-        <v>0.114599476682664</v>
+        <v>0.08712841698231139</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03667371324261309</v>
+        <v>0.02884940206627521</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1727555565.573701</v>
+        <v>1867233397.228316</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1374168920685639</v>
+        <v>0.151697052702737</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03195229073203688</v>
+        <v>0.02581959632647992</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1671796190.115005</v>
+        <v>1444665421.197514</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1070490090782015</v>
+        <v>0.1220660906283891</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05539986566334745</v>
+        <v>0.04183849447266019</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2631400592.887064</v>
+        <v>2629210120.692815</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1091428687746979</v>
+        <v>0.123419453777848</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04388284852241449</v>
+        <v>0.03671048326878777</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1911,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4215408460.845129</v>
+        <v>4311861172.826222</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1195985904938328</v>
+        <v>0.1231181000347229</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0290851360063057</v>
+        <v>0.03295240000679305</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>196</v>
+      </c>
+      <c r="J42" t="n">
+        <v>449</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1946,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2297173230.260279</v>
+        <v>2781334632.107429</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1926924791398318</v>
+        <v>0.1719554077175188</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01976158779063006</v>
+        <v>0.01702652783184637</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1981,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2073197208.65054</v>
+        <v>1918658233.218098</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09178418549535367</v>
+        <v>0.1027532994538954</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02675241240086485</v>
+        <v>0.03244115978091244</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1563129445.60632</v>
+        <v>1769453978.956437</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1592229914549458</v>
+        <v>0.1658939984841261</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03747741908111944</v>
+        <v>0.03631747852716371</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3862952360.385978</v>
+        <v>3587040633.604925</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1261932981889067</v>
+        <v>0.1313915772937785</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05427429449277443</v>
+        <v>0.0382311572230555</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>267</v>
+      </c>
+      <c r="J46" t="n">
+        <v>448</v>
+      </c>
+      <c r="K46" t="n">
+        <v>35.14118657817504</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4873089709.720387</v>
+        <v>3805844758.895347</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1265818703680516</v>
+        <v>0.1399011050051926</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03939348917705732</v>
+        <v>0.04110407867406115</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>202</v>
+      </c>
+      <c r="J47" t="n">
+        <v>449</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2117,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2927520102.048727</v>
+        <v>3004936460.220033</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1051320192205745</v>
+        <v>0.07425399718469151</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03228427400734651</v>
+        <v>0.02898465431599635</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>226</v>
+      </c>
+      <c r="J48" t="n">
+        <v>446</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2158,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1910897102.772768</v>
+        <v>1750754123.867221</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1893244025628561</v>
+        <v>0.135126694914412</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04080563746209709</v>
+        <v>0.02770499616999856</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2193,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3488375749.923473</v>
+        <v>3007782990.97538</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1604313093323392</v>
+        <v>0.150197949630181</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04948638889685289</v>
+        <v>0.04379333627081231</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>160</v>
+      </c>
+      <c r="J50" t="n">
+        <v>445</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>972622598.2664031</v>
+        <v>1017326576.976549</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1772209428812098</v>
+        <v>0.1316413002792399</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04153446251588068</v>
+        <v>0.05397440070385694</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2263,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4165812793.26487</v>
+        <v>4157726762.950122</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08447257440010286</v>
+        <v>0.1379275309968086</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04454359480782894</v>
+        <v>0.05115899020226475</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>256</v>
+      </c>
+      <c r="J52" t="n">
+        <v>448</v>
+      </c>
+      <c r="K52" t="n">
+        <v>33.90853839568999</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2422807652.649231</v>
+        <v>3119186190.92803</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1713466074371341</v>
+        <v>0.132936176280706</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03084061492424996</v>
+        <v>0.03449924008946371</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>68</v>
+      </c>
+      <c r="J53" t="n">
+        <v>446</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2329,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4333055106.719347</v>
+        <v>4055520574.053231</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1365409055007904</v>
+        <v>0.1474386009748718</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04868615133806373</v>
+        <v>0.04737084488180551</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>237</v>
+      </c>
+      <c r="J54" t="n">
+        <v>448</v>
+      </c>
+      <c r="K54" t="n">
+        <v>35.59930143874087</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2372,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3117021329.161836</v>
+        <v>4098345418.742661</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2122498897252529</v>
+        <v>0.1982238098584925</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02064576006098583</v>
+        <v>0.02230911869022448</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>223</v>
+      </c>
+      <c r="J55" t="n">
+        <v>448</v>
+      </c>
+      <c r="K55" t="n">
+        <v>35.52998865062673</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1793796805.031068</v>
+        <v>1762646493.788656</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1563691627597573</v>
+        <v>0.108550272801418</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04989023999997598</v>
+        <v>0.0356449612399778</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4195159452.554412</v>
+        <v>3721797671.94278</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1189004648785557</v>
+        <v>0.1814684827200192</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0213458391055616</v>
+        <v>0.02164513486351651</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>195</v>
+      </c>
+      <c r="J57" t="n">
+        <v>447</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1159713635.612146</v>
+        <v>1682060751.365361</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1758347339625971</v>
+        <v>0.1438351700796192</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02821802849789624</v>
+        <v>0.03928755849881551</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2508,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4577854112.661274</v>
+        <v>3971796830.988252</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1096125745048953</v>
+        <v>0.1264656840648758</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04611043161986858</v>
+        <v>0.04643383910969331</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>219</v>
+      </c>
+      <c r="J59" t="n">
+        <v>449</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2543,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2927019601.158887</v>
+        <v>3440574798.329172</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1375254306838195</v>
+        <v>0.178383114055806</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02504865028156383</v>
+        <v>0.02953553703000715</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>86</v>
+      </c>
+      <c r="J60" t="n">
+        <v>437</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2584,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2636145448.002728</v>
+        <v>2559647672.754085</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1668388622309941</v>
+        <v>0.1372145952342666</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0225498410080367</v>
+        <v>0.0212916724967121</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1879324478.393764</v>
+        <v>1585859864.685379</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1335736208758729</v>
+        <v>0.1719835955804182</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03289855312675095</v>
+        <v>0.03403434492488411</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2648,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5492272765.701595</v>
+        <v>5481899663.847763</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09186994880240121</v>
+        <v>0.1020226274532808</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04066812689329868</v>
+        <v>0.03920769392770215</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>224</v>
+      </c>
+      <c r="J63" t="n">
+        <v>449</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2683,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3804887447.466488</v>
+        <v>4313657170.493995</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1857285002736167</v>
+        <v>0.1340349301010677</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03487462760673225</v>
+        <v>0.03131109061923072</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>225</v>
+      </c>
+      <c r="J64" t="n">
+        <v>448</v>
+      </c>
+      <c r="K64" t="n">
+        <v>34.96329626799037</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4530165523.22797</v>
+        <v>5655230320.912624</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1201502086184509</v>
+        <v>0.171645940673835</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02491675725957198</v>
+        <v>0.01955939212931687</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>322</v>
+      </c>
+      <c r="J65" t="n">
+        <v>448</v>
+      </c>
+      <c r="K65" t="n">
+        <v>34.32858620142571</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2757,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5661810741.917847</v>
+        <v>3669731938.100883</v>
       </c>
       <c r="F66" t="n">
-        <v>0.109044590765002</v>
+        <v>0.1589681707843243</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04168754370925137</v>
+        <v>0.03287051338800683</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>221</v>
+      </c>
+      <c r="J66" t="n">
+        <v>448</v>
+      </c>
+      <c r="K66" t="n">
+        <v>35.61430337570023</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2995651116.747397</v>
+        <v>2113252369.597802</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0637192185689513</v>
+        <v>0.08148183032880281</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04347424224408897</v>
+        <v>0.04762377370102837</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2829,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4659906176.751398</v>
+        <v>5057695915.142465</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1085186449132915</v>
+        <v>0.1135288152800413</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04242799776993468</v>
+        <v>0.03671754185284988</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>244</v>
+      </c>
+      <c r="J68" t="n">
+        <v>449</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2171445748.132736</v>
+        <v>2002941883.188626</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1486429867606257</v>
+        <v>0.1492081382550834</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04694945623841019</v>
+        <v>0.05255308131541136</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,16 +2905,25 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3170628377.498696</v>
+        <v>3134486762.438131</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08411874129106352</v>
+        <v>0.07551208900021331</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03916361906596212</v>
+        <v>0.0348438829221797</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>64</v>
+      </c>
+      <c r="J70" t="n">
+        <v>449</v>
+      </c>
+      <c r="K70" t="n">
+        <v>44.7418204224649</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5023446823.134278</v>
+        <v>3523804739.961688</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1426327730763816</v>
+        <v>0.1285660833590834</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03389270625137392</v>
+        <v>0.03275268517649288</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>308</v>
+      </c>
+      <c r="J71" t="n">
+        <v>448</v>
+      </c>
+      <c r="K71" t="n">
+        <v>30.34787172758102</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2035290951.960447</v>
+        <v>1940038830.67593</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09200994323240533</v>
+        <v>0.08862510161262703</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03444655355038449</v>
+        <v>0.04621147925579872</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2446513311.683718</v>
+        <v>3174754093.280433</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1061752575822271</v>
+        <v>0.1121500625676222</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04737869506543507</v>
+        <v>0.04160382759850264</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>36</v>
+      </c>
+      <c r="J73" t="n">
+        <v>443</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3049,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3872816158.318444</v>
+        <v>2838241715.129417</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1328709038031866</v>
+        <v>0.1482732292288967</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02911327104561191</v>
+        <v>0.02355996590987447</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>129</v>
+      </c>
+      <c r="J74" t="n">
+        <v>447</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1961325474.311635</v>
+        <v>1507797995.111718</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1204965157691233</v>
+        <v>0.1417598149228175</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03575770126600935</v>
+        <v>0.03390265056884479</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3113,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4967612842.527556</v>
+        <v>3911292156.063708</v>
       </c>
       <c r="F76" t="n">
-        <v>0.124200630691563</v>
+        <v>0.1144491350019453</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02111803791001132</v>
+        <v>0.02201933735382675</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>214</v>
+      </c>
+      <c r="J76" t="n">
+        <v>448</v>
+      </c>
+      <c r="K76" t="n">
+        <v>35.38234076860608</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1544599046.601305</v>
+        <v>1740057342.363872</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1492645194828881</v>
+        <v>0.1407419304245597</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02733722734590672</v>
+        <v>0.0289218704746182</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3792683331.019099</v>
+        <v>2916676585.050506</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08733438979025418</v>
+        <v>0.104352978978189</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03646954606169763</v>
+        <v>0.04198218699387207</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>224</v>
+      </c>
+      <c r="J78" t="n">
+        <v>448</v>
+      </c>
+      <c r="K78" t="n">
+        <v>22.40290217679687</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1341829471.434995</v>
+        <v>1162988455.834371</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1516211034367071</v>
+        <v>0.1075103542332175</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0296721395943378</v>
+        <v>0.03028714357235463</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5424643325.185498</v>
+        <v>4704538579.059351</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1064861325688986</v>
+        <v>0.1042017059692462</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0278897994548029</v>
+        <v>0.0262871672117028</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>219</v>
+      </c>
+      <c r="J80" t="n">
+        <v>448</v>
+      </c>
+      <c r="K80" t="n">
+        <v>29.69202557191708</v>
       </c>
     </row>
     <row r="81">
@@ -2698,17 +3300,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4112331285.654262</v>
+        <v>4903356659.87708</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1043181599175752</v>
+        <v>0.1323100937507604</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03148993900681877</v>
+        <v>0.03125937237229449</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>208</v>
+      </c>
+      <c r="J81" t="n">
+        <v>449</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5655841489.6386</v>
+        <v>4956177028.64238</v>
       </c>
       <c r="F82" t="n">
-        <v>0.196648952487063</v>
+        <v>0.1361988475510138</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02508311456831916</v>
+        <v>0.01891938607844646</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>300</v>
+      </c>
+      <c r="J82" t="n">
+        <v>448</v>
+      </c>
+      <c r="K82" t="n">
+        <v>36.87685848769029</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2410323921.25852</v>
+        <v>2151815990.005906</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1544810303039362</v>
+        <v>0.1051597918590205</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04342688196356184</v>
+        <v>0.0285674796175375</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1605632445.491035</v>
+        <v>2417725269.0236</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1142947590627141</v>
+        <v>0.08473565166337697</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03684677604943342</v>
+        <v>0.0371459261436338</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3436,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3102360015.426782</v>
+        <v>2843896211.313311</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1201076954766478</v>
+        <v>0.1638564011439389</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04161748446670284</v>
+        <v>0.0485462916753514</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>61</v>
+      </c>
+      <c r="J85" t="n">
+        <v>449</v>
+      </c>
+      <c r="K85" t="n">
+        <v>43.90760121760142</v>
       </c>
     </row>
     <row r="86">
@@ -2838,17 +3479,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1834711305.628582</v>
+        <v>2285712555.115063</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1261616277966305</v>
+        <v>0.1452577128160768</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02641096087341222</v>
+        <v>0.02145950542433117</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1366030527.16456</v>
+        <v>1068428817.463696</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1759763725786953</v>
+        <v>0.1406370152373168</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04413558242508413</v>
+        <v>0.04450004937383388</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,16 +3549,25 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3707812037.177833</v>
+        <v>3089305628.234402</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1339085542536946</v>
+        <v>0.1082370392768341</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03594146372724414</v>
+        <v>0.02829216961281149</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>60</v>
+      </c>
+      <c r="J88" t="n">
+        <v>449</v>
+      </c>
+      <c r="K88" t="n">
+        <v>44.29207137418985</v>
       </c>
     </row>
     <row r="89">
@@ -2922,17 +3586,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2895538153.569479</v>
+        <v>2347352177.782984</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1528449805249779</v>
+        <v>0.1009335328335061</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03605541917750126</v>
+        <v>0.02635864199454465</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1958438411.732958</v>
+        <v>1459456403.433195</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1196098243267433</v>
+        <v>0.1136542567796458</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05364165022649378</v>
+        <v>0.05273158655852599</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3650,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1912925529.411078</v>
+        <v>1749492061.7556</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1184727684194314</v>
+        <v>0.1838561265718471</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03935231405952603</v>
+        <v>0.05263294655855533</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3685,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2320476760.515241</v>
+        <v>2029993630.578205</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09197010560220485</v>
+        <v>0.09504464421919097</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03644052644878542</v>
+        <v>0.03381051243623217</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3044058715.096015</v>
+        <v>3780742785.460316</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09463788060093041</v>
+        <v>0.1330788635315042</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03894626152978196</v>
+        <v>0.05431370808054872</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>215</v>
+      </c>
+      <c r="J93" t="n">
+        <v>449</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1565628881.562032</v>
+        <v>1613661045.202712</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1166964005348513</v>
+        <v>0.161532106045441</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04059486508984163</v>
+        <v>0.02719501684371956</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2143243300.20925</v>
+        <v>2702691861.702695</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09041877493760794</v>
+        <v>0.1050607863557478</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03880579835248483</v>
+        <v>0.04382302005524491</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1541262836.20611</v>
+        <v>2228007711.812397</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1234178993840765</v>
+        <v>0.1001338852608293</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02896119434846232</v>
+        <v>0.03468597407848014</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4444939828.921862</v>
+        <v>5254412344.183604</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1073521329016161</v>
+        <v>0.1267970341914838</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02100365248305623</v>
+        <v>0.01999387446761831</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>234</v>
+      </c>
+      <c r="J97" t="n">
+        <v>449</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3647986030.564102</v>
+        <v>3886355287.38336</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1035273611659567</v>
+        <v>0.07822853007787053</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0237277348387821</v>
+        <v>0.02312059011870786</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>113</v>
+      </c>
+      <c r="J98" t="n">
+        <v>449</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3205080806.040465</v>
+        <v>3117910636.928709</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09915150160411522</v>
+        <v>0.1223026572955278</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03522999260691347</v>
+        <v>0.0268860063470585</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3749466546.687571</v>
+        <v>3937400592.257203</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1392831159240137</v>
+        <v>0.169792683472433</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02176969875067136</v>
+        <v>0.0247747293973695</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>208</v>
+      </c>
+      <c r="J100" t="n">
+        <v>449</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2441508371.367201</v>
+        <v>3475234788.687241</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1982073080256657</v>
+        <v>0.2192392336573804</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04647536406003096</v>
+        <v>0.03761945477966455</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
